--- a/init-data/hzero-platform/hzero_platform/hzero-platform-permission-range.xlsx
+++ b/init-data/hzero-platform/hzero_platform/hzero-platform-permission-range.xlsx
@@ -3,30 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Desktop\data\hzero-platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="屏蔽规则" sheetId="2" r:id="rId2"/>
+    <sheet name="屏蔽规则" r:id="rId5" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="273">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2016,7 +2016,10 @@
     <t>rule_type_code</t>
   </si>
   <si>
-    <t>rule_name</t>
+    <t>rule_name:zh_CN</t>
+  </si>
+  <si>
+    <t>rule_name:en_US</t>
   </si>
   <si>
     <t>description</t>
@@ -2025,253 +2028,457 @@
     <t>sql_value</t>
   </si>
   <si>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-8</t>
+  </si>
+  <si>
+    <t>PREFIX.HZERO_PLATFORM</t>
+  </si>
+  <si>
+    <t>PREFIX</t>
+  </si>
+  <si>
+    <t>平台数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_platform</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-9</t>
+  </si>
+  <si>
+    <t>HIAM.ASSIGNED_MEMBER_ROLE</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>平台预制角色已分配用户屏蔽</t>
+  </si>
+  <si>
+    <t>请勿删除!</t>
+  </si>
+  <si>
+    <t>exists (  select 'x' from iam_role ir where ir.id = role_id and (ir.h_tenant_id = #{organizationId} or  exists (    select 'x' from iam_user iu where iu.id = member_id and iu.organization_id = #{organizationId})) )</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-10</t>
+  </si>
+  <si>
+    <t>PREFIX.HZERO_MESSAGE</t>
+  </si>
+  <si>
+    <t>消息服务数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_message</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-11</t>
+  </si>
+  <si>
+    <t>PREFIX.ADMIN</t>
+  </si>
+  <si>
+    <t>平台治理服务数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_admin</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-12</t>
+  </si>
+  <si>
+    <t>PREFIX.INTERFACE</t>
+  </si>
+  <si>
+    <t>接口平台数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_interface</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-13</t>
+  </si>
+  <si>
+    <t>PREFIX.HZERO_RULE_ENGINE</t>
+  </si>
+  <si>
+    <t>规则引擎服务前缀</t>
+  </si>
+  <si>
+    <t>hzero_rule_engine</t>
+  </si>
+  <si>
+    <t>屏蔽范围</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range</t>
+  </si>
+  <si>
+    <t>*range_id</t>
+  </si>
+  <si>
+    <t>custom_rule_flag</t>
+  </si>
+  <si>
+    <t>#table_name</t>
+  </si>
+  <si>
+    <t>#sql_id</t>
+  </si>
+  <si>
     <t>#tenant_id</t>
   </si>
   <si>
-    <t>enabled_flag</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-8</t>
-  </si>
-  <si>
-    <t>PREFIX.HZERO_PLATFORM</t>
-  </si>
-  <si>
-    <t>PREFIX</t>
-  </si>
-  <si>
-    <t>平台数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_platform</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-9</t>
-  </si>
-  <si>
-    <t>HIAM.ASSIGNED_MEMBER_ROLE</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>平台预制角色已分配用户屏蔽</t>
-  </si>
-  <si>
-    <t>请勿删除!</t>
-  </si>
-  <si>
-    <t>exists (  select 'x' from iam_role ir where ir.id = role_id and (ir.h_tenant_id = #{organizationId} or  exists (    select 'x' from iam_user iu where iu.id = member_id and iu.organization_id = #{organizationId})) )</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-10</t>
-  </si>
-  <si>
-    <t>PREFIX.HZERO_MESSAGE</t>
-  </si>
-  <si>
-    <t>消息服务数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_message</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-11</t>
-  </si>
-  <si>
-    <t>PREFIX.ADMIN</t>
-  </si>
-  <si>
-    <t>平台治理服务数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_admin</t>
-  </si>
-  <si>
-    <t>屏蔽范围</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range</t>
-  </si>
-  <si>
-    <t>*range_id</t>
-  </si>
-  <si>
-    <t>custom_rule_flag</t>
-  </si>
-  <si>
-    <t>#table_name</t>
-  </si>
-  <si>
-    <t>#sql_id</t>
-  </si>
-  <si>
     <t>#service_name</t>
   </si>
   <si>
+    <t>hpfm_permission_range-16</t>
+  </si>
+  <si>
     <t>hpfm_company</t>
   </si>
   <si>
+    <t>hpfm_permission_range-17</t>
+  </si>
+  <si>
     <t>hpfm_group</t>
   </si>
   <si>
+    <t>hpfm_permission_range-18</t>
+  </si>
+  <si>
     <t>hpfm_tenant</t>
   </si>
   <si>
+    <t>hpfm_permission_range-19</t>
+  </si>
+  <si>
     <t>iam_role</t>
   </si>
   <si>
+    <t>hpfm_permission_range-20</t>
+  </si>
+  <si>
     <t>iam_user</t>
   </si>
   <si>
+    <t>hpfm_permission_range-21</t>
+  </si>
+  <si>
     <t>oauth_client</t>
   </si>
   <si>
+    <t>hpfm_permission_range-22</t>
+  </si>
+  <si>
     <t>hpfm_datasource</t>
   </si>
   <si>
+    <t>hpfm_permission_range-23</t>
+  </si>
+  <si>
     <t>hpfm_rule_script</t>
   </si>
   <si>
+    <t>hpfm_permission_range-24</t>
+  </si>
+  <si>
     <t>hiam_tenant_access</t>
   </si>
   <si>
+    <t>hpfm_permission_range-25</t>
+  </si>
+  <si>
     <t>iam_member_role</t>
   </si>
   <si>
     <t>org.hzero.iam.infra.mapper.HiamUserMapper.selectRoleUsers</t>
   </si>
   <si>
+    <t>hpfm_permission_range-26</t>
+  </si>
+  <si>
     <t>hmsg_message_template</t>
   </si>
   <si>
+    <t>hpfm_permission_range-27</t>
+  </si>
+  <si>
     <t>hpfm_server</t>
   </si>
   <si>
+    <t>hpfm_permission_range-28</t>
+  </si>
+  <si>
     <t>hpfm_server_cluster</t>
   </si>
   <si>
+    <t>hpfm_permission_range-29</t>
+  </si>
+  <si>
     <t>hiam_role_auth_data</t>
   </si>
   <si>
+    <t>hpfm_permission_range-30</t>
+  </si>
+  <si>
     <t>hiam_role_auth_data_line</t>
   </si>
   <si>
+    <t>hpfm_permission_range-31</t>
+  </si>
+  <si>
     <t>hiam_role_authority_line</t>
   </si>
   <si>
+    <t>hpfm_permission_range-32</t>
+  </si>
+  <si>
     <t>hiam_user_authority</t>
   </si>
   <si>
+    <t>hpfm_permission_range-33</t>
+  </si>
+  <si>
     <t>hiam_user_authority_line</t>
   </si>
   <si>
+    <t>hpfm_permission_range-34</t>
+  </si>
+  <si>
     <t>iam_permission</t>
   </si>
   <si>
+    <t>hpfm_permission_range-35</t>
+  </si>
+  <si>
     <t>hiam_doc_type</t>
   </si>
   <si>
     <t>请勿删除</t>
   </si>
   <si>
+    <t>hpfm_permission_range-36</t>
+  </si>
+  <si>
     <t>hpfm_tenant_tl</t>
   </si>
   <si>
+    <t>hpfm_permission_range-37</t>
+  </si>
+  <si>
     <t>hmsg_email_server</t>
   </si>
   <si>
+    <t>hpfm_permission_range-38</t>
+  </si>
+  <si>
     <t>hpfm_uom</t>
   </si>
   <si>
+    <t>hpfm_permission_range-39</t>
+  </si>
+  <si>
     <t>hpfm_employee</t>
   </si>
   <si>
+    <t>hpfm_permission_range-40</t>
+  </si>
+  <si>
     <t>hpfm_employee_assign</t>
   </si>
   <si>
+    <t>hpfm_permission_range-41</t>
+  </si>
+  <si>
     <t>hpfm_employee_user</t>
   </si>
   <si>
+    <t>hpfm_permission_range-42</t>
+  </si>
+  <si>
     <t>hpfm_lov_value</t>
   </si>
   <si>
+    <t>hpfm_permission_range-43</t>
+  </si>
+  <si>
     <t>hpfm_lov_value_tl</t>
   </si>
   <si>
+    <t>hpfm_permission_range-44</t>
+  </si>
+  <si>
     <t>hmsg_message</t>
   </si>
   <si>
+    <t>hpfm_permission_range-45</t>
+  </si>
+  <si>
     <t>hmsg_message_receiver</t>
   </si>
   <si>
+    <t>hpfm_permission_range-46</t>
+  </si>
+  <si>
     <t>hpfm_lov</t>
   </si>
   <si>
+    <t>hpfm_permission_range-47</t>
+  </si>
+  <si>
     <t>fd_language</t>
   </si>
   <si>
+    <t>hpfm_permission_range-48</t>
+  </si>
+  <si>
     <t>hiam_user_group_assign</t>
   </si>
   <si>
+    <t>hpfm_permission_range-49</t>
+  </si>
+  <si>
     <t>hadm_service</t>
   </si>
   <si>
+    <t>hpfm_permission_range-50</t>
+  </si>
+  <si>
     <t>hitf_interface_server</t>
   </si>
   <si>
     <t>hzero-platform</t>
   </si>
   <si>
+    <t>hpfm_permission_range-51</t>
+  </si>
+  <si>
     <t>hiam_user_group</t>
   </si>
   <si>
+    <t>hpfm_permission_range-52</t>
+  </si>
+  <si>
     <t>hpfm_unit</t>
   </si>
   <si>
+    <t>hpfm_permission_range-53</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_header</t>
   </si>
   <si>
+    <t>hpfm_permission_range-54</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_header_tl</t>
   </si>
   <si>
+    <t>hpfm_permission_range-55</t>
+  </si>
+  <si>
     <t>hpfm_hr_sync_employee</t>
   </si>
   <si>
+    <t>hpfm_permission_range-56</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-57</t>
+  </si>
+  <si>
     <t>hiam_doc_type_auth_dim</t>
   </si>
   <si>
+    <t>hpfm_permission_range-58</t>
+  </si>
+  <si>
     <t>hres_rule</t>
   </si>
   <si>
+    <t>hpfm_permission_range-59</t>
+  </si>
+  <si>
     <t>hiam_role_rel</t>
   </si>
   <si>
+    <t>hpfm_permission_range-60</t>
+  </si>
+  <si>
     <t>hpfm_code_rule</t>
   </si>
   <si>
+    <t>hpfm_permission_range-61</t>
+  </si>
+  <si>
     <t>hmsg_template_server</t>
   </si>
   <si>
+    <t>hpfm_permission_range-62</t>
+  </si>
+  <si>
     <t>hmsg_receiver_type</t>
   </si>
   <si>
+    <t>hpfm_permission_range-63</t>
+  </si>
+  <si>
     <t>hpfm_country</t>
   </si>
   <si>
     <t>由单据权限[COUNTRY]维度[MIJI]自动生成</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>由单据权限[HPFM.LOV]维度[LOV]自动生成</t>
+    <t>hpfm_permission_range-64</t>
+  </si>
+  <si>
+    <t>iam_menu_tl</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-65</t>
+  </si>
+  <si>
+    <t>iam_role_tl</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-66</t>
+  </si>
+  <si>
+    <t>iam_label</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-67</t>
+  </si>
+  <si>
+    <t>hiam_label_rel</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-68</t>
+  </si>
+  <si>
+    <t>hpfm_financial_code</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-69</t>
+  </si>
+  <si>
+    <t>iam_permission_tl</t>
   </si>
   <si>
     <t>屏蔽范围规则关系</t>
@@ -2292,6 +2499,36 @@
     <t>editable_flag</t>
   </si>
   <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-72</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-73</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-74</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-75</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-76</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-77</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-78</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-79</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-80</t>
+  </si>
+  <si>
     <t>hpfm_permission_rel-81</t>
   </si>
   <si>
@@ -2394,6 +2631,9 @@
     <t>hpfm_permission_rel-114</t>
   </si>
   <si>
+    <t>hpfm_permission_rel-115</t>
+  </si>
+  <si>
     <t>hpfm_permission_rel-116</t>
   </si>
   <si>
@@ -2415,759 +2655,21 @@
     <t>hpfm_permission_rel-122</t>
   </si>
   <si>
+    <t>hpfm_permission_rel-123</t>
+  </si>
+  <si>
     <t>hpfm_permission_rel-124</t>
   </si>
   <si>
     <t>hpfm_permission_rel-125</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-126</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-127</t>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-34</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-37</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-38</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-41</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-42</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-44</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-46</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-49</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-51</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-54</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-55</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-57</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-58</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-61</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hpfm_permission_range-62</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="39">
+  <numFmts count="0"/>
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3286,130 +2788,114 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3602,27 +3088,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3638,7 +3103,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3985,33 +3471,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4020,21 +3506,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4145,11 +3631,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4187,19 +3673,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="48"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="48"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4223,41 +3709,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4267,13 +3751,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" t="s" s="39">
         <v>53</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" t="s" s="41">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4288,1869 +3772,2235 @@
       <c r="J7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="42">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="s" s="43">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="E8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s" s="44">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s" s="45">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" t="s" s="46">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s" s="47">
+        <v>98</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" t="s" s="48">
+        <v>99</v>
+      </c>
+      <c r="K15" t="s" s="49">
+        <v>100</v>
+      </c>
+      <c r="L15" t="s">
         <v>63</v>
       </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="E10" t="s">
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" t="s">
         <v>75</v>
       </c>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38" t="s">
+        <v>75</v>
+      </c>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>150</v>
+      </c>
+      <c r="I39" t="s">
+        <v>75</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" t="s">
+        <v>75</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" t="s">
+        <v>154</v>
+      </c>
+      <c r="I41" t="s">
+        <v>75</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42" t="s">
+        <v>75</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" t="s">
+        <v>75</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>162</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" t="s">
+        <v>164</v>
+      </c>
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>166</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+      <c r="J47" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" t="s">
+        <v>168</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+      <c r="J48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>170</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+      <c r="J49" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" t="s">
+        <v>172</v>
+      </c>
+      <c r="J50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K50" t="s">
+        <v>173</v>
+      </c>
+      <c r="L50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" t="s">
+        <v>175</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J51" t="s">
+        <v>69</v>
+      </c>
+      <c r="L51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" t="s">
+        <v>177</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" t="s">
+        <v>179</v>
+      </c>
+      <c r="J53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>180</v>
+      </c>
+      <c r="F54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" t="s">
+        <v>181</v>
+      </c>
+      <c r="J54" t="s">
+        <v>69</v>
+      </c>
+      <c r="L54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" t="s">
+        <v>183</v>
+      </c>
+      <c r="J55" t="s">
+        <v>69</v>
+      </c>
+      <c r="L55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" t="s">
+        <v>120</v>
+      </c>
+      <c r="J56" t="s">
+        <v>69</v>
+      </c>
+      <c r="L56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" t="s">
+        <v>186</v>
+      </c>
+      <c r="I57" t="s">
+        <v>142</v>
+      </c>
+      <c r="J57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" t="s">
+        <v>188</v>
+      </c>
+      <c r="J58" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>189</v>
+      </c>
+      <c r="F59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" t="s">
+        <v>190</v>
+      </c>
+      <c r="J59" t="s">
+        <v>69</v>
+      </c>
+      <c r="L59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" t="s">
+        <v>192</v>
+      </c>
+      <c r="I60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s">
+        <v>69</v>
+      </c>
+      <c r="L60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" t="s">
+        <v>194</v>
+      </c>
+      <c r="J61" t="s">
+        <v>69</v>
+      </c>
+      <c r="L61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" t="s">
+        <v>196</v>
+      </c>
+      <c r="J62" t="s">
+        <v>69</v>
+      </c>
+      <c r="L62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
+        <v>198</v>
+      </c>
+      <c r="I63" t="s">
+        <v>199</v>
+      </c>
+      <c r="J63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K63" t="s">
+        <v>173</v>
+      </c>
+      <c r="L63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" t="s">
+        <v>201</v>
+      </c>
+      <c r="J64" t="s">
+        <v>69</v>
+      </c>
+      <c r="L64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
+        <v>202</v>
+      </c>
+      <c r="F65" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" t="s">
+        <v>203</v>
+      </c>
+      <c r="J65" t="s">
+        <v>69</v>
+      </c>
+      <c r="L65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" t="s">
+        <v>69</v>
+      </c>
+      <c r="G66" t="s">
+        <v>205</v>
+      </c>
+      <c r="J66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" t="s">
+        <v>207</v>
+      </c>
+      <c r="J67" t="s">
+        <v>69</v>
+      </c>
+      <c r="L67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" t="s">
+        <v>209</v>
+      </c>
+      <c r="J68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" t="s">
+        <v>211</v>
+      </c>
+      <c r="J69" t="s">
+        <v>69</v>
+      </c>
+      <c r="L69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B71" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="E14" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="E15" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="E16" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12">
-      <c r="E17" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12">
-      <c r="E18" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12">
-      <c r="E19" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12">
-      <c r="E20" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12">
-      <c r="E21" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="5:12">
-      <c r="E22" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12">
-      <c r="E23" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="5:12">
-      <c r="E24" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12">
-      <c r="E25" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12">
-      <c r="E26" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12">
-      <c r="E27" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12">
-      <c r="E28" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12">
-      <c r="E29" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12">
-      <c r="E30" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" t="s">
-        <v>73</v>
-      </c>
-      <c r="J30" t="s">
-        <v>67</v>
-      </c>
-      <c r="L30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="5:12">
-      <c r="E31" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>108</v>
-      </c>
-      <c r="I31" t="s">
-        <v>73</v>
-      </c>
-      <c r="J31" t="s">
-        <v>67</v>
-      </c>
-      <c r="L31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12">
-      <c r="E32" s="53" t="s">
+      <c r="C71" t="s">
         <v>212</v>
       </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" t="s">
-        <v>67</v>
-      </c>
-      <c r="L32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12">
-      <c r="E33" s="53" t="s">
+      <c r="D71" t="s" s="50">
         <v>213</v>
       </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" t="s">
-        <v>111</v>
-      </c>
-      <c r="J33" t="s">
-        <v>67</v>
-      </c>
-      <c r="L33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12">
-      <c r="E34" s="53" t="s">
+      <c r="E71" t="s" s="51">
         <v>214</v>
       </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>112</v>
-      </c>
-      <c r="I34" t="s">
-        <v>73</v>
-      </c>
-      <c r="J34" t="s">
-        <v>67</v>
-      </c>
-      <c r="L34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12">
-      <c r="E35" s="53" t="s">
+      <c r="F71" t="s" s="52">
         <v>215</v>
       </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>113</v>
-      </c>
-      <c r="I35" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" t="s">
-        <v>67</v>
-      </c>
-      <c r="L35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="5:12">
-      <c r="E36" s="53" t="s">
+      <c r="G71" t="s" s="53">
         <v>216</v>
       </c>
-      <c r="F36" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" t="s">
-        <v>114</v>
-      </c>
-      <c r="I36" t="s">
-        <v>73</v>
-      </c>
-      <c r="J36" t="s">
-        <v>67</v>
-      </c>
-      <c r="L36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="5:12">
-      <c r="E37" s="53" t="s">
+      <c r="H71" t="s">
         <v>217</v>
       </c>
-      <c r="F37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" t="s">
-        <v>73</v>
-      </c>
-      <c r="J37" t="s">
-        <v>67</v>
-      </c>
-      <c r="L37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="5:12">
-      <c r="E38" s="53" t="s">
+      <c r="I71" t="s">
         <v>218</v>
       </c>
-      <c r="F38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J38" t="s">
-        <v>67</v>
-      </c>
-      <c r="L38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="5:12">
-      <c r="E39" s="53" t="s">
+    </row>
+    <row r="72">
+      <c r="E72" t="s">
         <v>219</v>
       </c>
-      <c r="F39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" t="s">
-        <v>117</v>
-      </c>
-      <c r="I39" t="s">
-        <v>73</v>
-      </c>
-      <c r="J39" t="s">
-        <v>67</v>
-      </c>
-      <c r="L39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="5:12">
-      <c r="E40" s="53" t="s">
+      <c r="F72">
+        <f>屏蔽规则!$E$16</f>
+      </c>
+      <c r="G72">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H72" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="s">
         <v>220</v>
       </c>
-      <c r="F40" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J40" t="s">
-        <v>67</v>
-      </c>
-      <c r="L40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="5:12">
-      <c r="E41" s="53" t="s">
+      <c r="F73">
+        <f>屏蔽规则!$E$17</f>
+      </c>
+      <c r="G73">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H73" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="s">
         <v>221</v>
       </c>
-      <c r="F41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" t="s">
-        <v>119</v>
-      </c>
-      <c r="I41" t="s">
-        <v>73</v>
-      </c>
-      <c r="J41" t="s">
-        <v>67</v>
-      </c>
-      <c r="L41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12">
-      <c r="E42" s="53" t="s">
+      <c r="F74">
+        <f>屏蔽规则!$E$18</f>
+      </c>
+      <c r="G74">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H74" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="s">
         <v>222</v>
       </c>
-      <c r="F42" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" t="s">
-        <v>120</v>
-      </c>
-      <c r="I42" t="s">
-        <v>73</v>
-      </c>
-      <c r="J42" t="s">
-        <v>67</v>
-      </c>
-      <c r="L42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="5:12">
-      <c r="E43" s="53" t="s">
+      <c r="F75">
+        <f>屏蔽规则!$E$19</f>
+      </c>
+      <c r="G75">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H75" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="s">
         <v>223</v>
       </c>
-      <c r="F43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G43" t="s">
-        <v>121</v>
-      </c>
-      <c r="I43" t="s">
-        <v>73</v>
-      </c>
-      <c r="J43" t="s">
-        <v>67</v>
-      </c>
-      <c r="L43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12">
-      <c r="E44" s="53" t="s">
+      <c r="F76">
+        <f>屏蔽规则!$E$20</f>
+      </c>
+      <c r="G76">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H76" t="s">
+        <v>70</v>
+      </c>
+      <c r="I76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="s">
         <v>224</v>
       </c>
-      <c r="F44" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" t="s">
-        <v>122</v>
-      </c>
-      <c r="I44" t="s">
-        <v>73</v>
-      </c>
-      <c r="J44" t="s">
-        <v>67</v>
-      </c>
-      <c r="L44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12">
-      <c r="E45" s="53" t="s">
+      <c r="F77">
+        <f>屏蔽规则!$E$21</f>
+      </c>
+      <c r="G77">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H77" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="s">
         <v>225</v>
       </c>
-      <c r="F45" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" t="s">
-        <v>123</v>
-      </c>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
-      <c r="J45" t="s">
-        <v>67</v>
-      </c>
-      <c r="L45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="5:12">
-      <c r="E46" s="53" t="s">
+      <c r="F78">
+        <f>屏蔽规则!$E$22</f>
+      </c>
+      <c r="G78">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H78" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="s">
         <v>226</v>
       </c>
-      <c r="F46" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" t="s">
-        <v>124</v>
-      </c>
-      <c r="I46" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" t="s">
-        <v>67</v>
-      </c>
-      <c r="L46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12">
-      <c r="E47" s="53" t="s">
+      <c r="F79">
+        <f>屏蔽规则!$E$23</f>
+      </c>
+      <c r="G79">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H79" t="s">
+        <v>70</v>
+      </c>
+      <c r="I79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="s">
         <v>227</v>
       </c>
-      <c r="F47" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" t="s">
-        <v>125</v>
-      </c>
-      <c r="I47" t="s">
-        <v>73</v>
-      </c>
-      <c r="J47" t="s">
-        <v>67</v>
-      </c>
-      <c r="L47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12">
-      <c r="E48" s="53" t="s">
+      <c r="F80">
+        <f>屏蔽规则!$E$24</f>
+      </c>
+      <c r="G80">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H80" t="s">
+        <v>70</v>
+      </c>
+      <c r="I80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="s">
         <v>228</v>
       </c>
-      <c r="F48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" t="s">
-        <v>126</v>
-      </c>
-      <c r="J48" t="s">
-        <v>67</v>
-      </c>
-      <c r="K48" t="s">
-        <v>127</v>
-      </c>
-      <c r="L48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="E49" s="53" t="s">
+      <c r="F81">
+        <f>屏蔽规则!$E$25</f>
+      </c>
+      <c r="G81">
+        <f>屏蔽规则!$E$9</f>
+      </c>
+      <c r="H81" t="s">
+        <v>70</v>
+      </c>
+      <c r="I81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="s">
         <v>229</v>
       </c>
-      <c r="F49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" t="s">
-        <v>128</v>
-      </c>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-      <c r="J49" t="s">
-        <v>67</v>
-      </c>
-      <c r="L49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="E50" s="53" t="s">
+      <c r="F82">
+        <f>屏蔽规则!$E$26</f>
+      </c>
+      <c r="G82">
+        <f>屏蔽规则!$E$10</f>
+      </c>
+      <c r="H82" t="s">
+        <v>70</v>
+      </c>
+      <c r="I82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="s">
         <v>230</v>
       </c>
-      <c r="F50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s">
-        <v>129</v>
-      </c>
-      <c r="I50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J50" t="s">
-        <v>67</v>
-      </c>
-      <c r="L50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="E51" s="53" t="s">
+      <c r="F83">
+        <f>屏蔽规则!$E$27</f>
+      </c>
+      <c r="G83">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H83" t="s">
+        <v>70</v>
+      </c>
+      <c r="I83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="s">
         <v>231</v>
       </c>
-      <c r="F51" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" t="s">
-        <v>130</v>
-      </c>
-      <c r="J51" t="s">
-        <v>67</v>
-      </c>
-      <c r="L51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="E52" s="53" t="s">
+      <c r="F84">
+        <f>屏蔽规则!$E$28</f>
+      </c>
+      <c r="G84">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H84" t="s">
+        <v>70</v>
+      </c>
+      <c r="I84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="s">
         <v>232</v>
       </c>
-      <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>131</v>
-      </c>
-      <c r="J52" t="s">
-        <v>67</v>
-      </c>
-      <c r="L52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="E53" s="53" t="s">
+      <c r="F85">
+        <f>屏蔽规则!$E$29</f>
+      </c>
+      <c r="G85">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H85" t="s">
+        <v>70</v>
+      </c>
+      <c r="I85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="s">
         <v>233</v>
       </c>
-      <c r="F53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" t="s">
-        <v>132</v>
-      </c>
-      <c r="J53" t="s">
-        <v>67</v>
-      </c>
-      <c r="L53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="E54" s="53" t="s">
+      <c r="F86">
+        <f>屏蔽规则!$E$30</f>
+      </c>
+      <c r="G86">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H86" t="s">
+        <v>70</v>
+      </c>
+      <c r="I86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="s">
         <v>234</v>
       </c>
-      <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s">
-        <v>99</v>
-      </c>
-      <c r="J54" t="s">
-        <v>67</v>
-      </c>
-      <c r="L54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="E55" s="53" t="s">
+      <c r="F87">
+        <f>屏蔽规则!$E$31</f>
+      </c>
+      <c r="G87">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H87" t="s">
+        <v>70</v>
+      </c>
+      <c r="I87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="s">
         <v>235</v>
       </c>
-      <c r="F55" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" t="s">
-        <v>133</v>
-      </c>
-      <c r="I55" t="s">
-        <v>111</v>
-      </c>
-      <c r="J55" t="s">
-        <v>67</v>
-      </c>
-      <c r="L55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="E56" s="53" t="s">
+      <c r="F88">
+        <f>屏蔽规则!$E$32</f>
+      </c>
+      <c r="G88">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H88" t="s">
+        <v>70</v>
+      </c>
+      <c r="I88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="s">
         <v>236</v>
       </c>
-      <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s">
-        <v>134</v>
-      </c>
-      <c r="J56" t="s">
-        <v>67</v>
-      </c>
-      <c r="L56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="E57" s="53" t="s">
+      <c r="F89">
+        <f>屏蔽规则!$E$33</f>
+      </c>
+      <c r="G89">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="s">
         <v>237</v>
       </c>
-      <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s">
-        <v>135</v>
-      </c>
-      <c r="J57" t="s">
-        <v>67</v>
-      </c>
-      <c r="L57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="E58" s="53" t="s">
+      <c r="F90">
+        <f>屏蔽规则!$E$34</f>
+      </c>
+      <c r="G90">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H90" t="s">
+        <v>70</v>
+      </c>
+      <c r="I90" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="s">
         <v>238</v>
       </c>
-      <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>136</v>
-      </c>
-      <c r="I58" t="s">
-        <v>73</v>
-      </c>
-      <c r="J58" t="s">
-        <v>67</v>
-      </c>
-      <c r="L58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="E59" s="53" t="s">
+      <c r="F91">
+        <f>屏蔽规则!$E$35</f>
+      </c>
+      <c r="G91">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H91" t="s">
+        <v>70</v>
+      </c>
+      <c r="I91" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
         <v>239</v>
       </c>
-      <c r="F59" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" t="s">
-        <v>137</v>
-      </c>
-      <c r="J59" t="s">
-        <v>67</v>
-      </c>
-      <c r="L59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="E60" s="53" t="s">
+      <c r="F92">
+        <f>屏蔽规则!$E$36</f>
+      </c>
+      <c r="G92">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H92" t="s">
+        <v>70</v>
+      </c>
+      <c r="I92" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="s">
         <v>240</v>
       </c>
-      <c r="F60" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" t="s">
-        <v>138</v>
-      </c>
-      <c r="J60" t="s">
-        <v>67</v>
-      </c>
-      <c r="L60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="E61" s="53" t="s">
+      <c r="F93">
+        <f>屏蔽规则!$E$37</f>
+      </c>
+      <c r="G93">
+        <f>屏蔽规则!$E$10</f>
+      </c>
+      <c r="H93" t="s">
+        <v>70</v>
+      </c>
+      <c r="I93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="s">
         <v>241</v>
       </c>
-      <c r="F61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" t="s">
-        <v>139</v>
-      </c>
-      <c r="I61" t="s">
-        <v>140</v>
-      </c>
-      <c r="J61" t="s">
-        <v>67</v>
-      </c>
-      <c r="K61" t="s">
-        <v>127</v>
-      </c>
-      <c r="L61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="E62" s="53" t="s">
+      <c r="F94">
+        <f>屏蔽规则!$E$38</f>
+      </c>
+      <c r="G94">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H94" t="s">
+        <v>70</v>
+      </c>
+      <c r="I94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="s">
         <v>242</v>
       </c>
-      <c r="F62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G62" t="s">
-        <v>122</v>
-      </c>
-      <c r="H62" t="s">
-        <v>141</v>
-      </c>
-      <c r="I62" t="s">
-        <v>142</v>
-      </c>
-      <c r="J62" t="s">
-        <v>67</v>
-      </c>
-      <c r="K62" t="s">
-        <v>127</v>
-      </c>
-      <c r="L62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="F64" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="G64" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="H64" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="5:8">
-      <c r="E65" t="s">
-        <v>149</v>
-      </c>
-      <c r="F65" t="str">
-        <f>屏蔽规则!$E$14</f>
-        <v>hpfm_permission_range-14</v>
-      </c>
-      <c r="G65" t="str">
+      <c r="F95">
+        <f>屏蔽规则!$E$39</f>
+      </c>
+      <c r="G95">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="5:8">
-      <c r="E66" t="s">
-        <v>150</v>
-      </c>
-      <c r="F66" t="str">
-        <f>屏蔽规则!$E$15</f>
-        <v>hpfm_permission_range-15</v>
-      </c>
-      <c r="G66" t="str">
+      </c>
+      <c r="H95" t="s">
+        <v>70</v>
+      </c>
+      <c r="I95" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="s">
+        <v>243</v>
+      </c>
+      <c r="F96">
+        <f>屏蔽规则!$E$40</f>
+      </c>
+      <c r="G96">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="5:8">
-      <c r="E67" t="s">
-        <v>151</v>
-      </c>
-      <c r="F67" t="str">
-        <f>屏蔽规则!$E$16</f>
-        <v>hpfm_permission_range-16</v>
-      </c>
-      <c r="G67" t="str">
+      </c>
+      <c r="H96" t="s">
+        <v>70</v>
+      </c>
+      <c r="I96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="s">
+        <v>244</v>
+      </c>
+      <c r="F97">
+        <f>屏蔽规则!$E$41</f>
+      </c>
+      <c r="G97">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="5:8">
-      <c r="E68" t="s">
-        <v>152</v>
-      </c>
-      <c r="F68" t="str">
-        <f>屏蔽规则!$E$17</f>
-        <v>hpfm_permission_range-17</v>
-      </c>
-      <c r="G68" t="str">
+      </c>
+      <c r="H97" t="s">
+        <v>70</v>
+      </c>
+      <c r="I97" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="s">
+        <v>245</v>
+      </c>
+      <c r="F98">
+        <f>屏蔽规则!$E$42</f>
+      </c>
+      <c r="G98">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="5:8">
-      <c r="E69" t="s">
-        <v>153</v>
-      </c>
-      <c r="F69" t="str">
-        <f>屏蔽规则!$E$18</f>
-        <v>hpfm_permission_range-18</v>
-      </c>
-      <c r="G69" t="str">
+      </c>
+      <c r="H98" t="s">
+        <v>70</v>
+      </c>
+      <c r="I98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="s">
+        <v>246</v>
+      </c>
+      <c r="F99">
+        <f>屏蔽规则!$E$43</f>
+      </c>
+      <c r="G99">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="5:8">
-      <c r="E70" t="s">
-        <v>154</v>
-      </c>
-      <c r="F70" t="str">
-        <f>屏蔽规则!$E$19</f>
-        <v>hpfm_permission_range-19</v>
-      </c>
-      <c r="G70" t="str">
+      </c>
+      <c r="H99" t="s">
+        <v>70</v>
+      </c>
+      <c r="I99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="s">
+        <v>247</v>
+      </c>
+      <c r="F100">
+        <f>屏蔽规则!$E$44</f>
+      </c>
+      <c r="G100">
+        <f>屏蔽规则!$E$10</f>
+      </c>
+      <c r="H100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="s">
+        <v>248</v>
+      </c>
+      <c r="F101">
+        <f>屏蔽规则!$E$45</f>
+      </c>
+      <c r="G101">
+        <f>屏蔽规则!$E$10</f>
+      </c>
+      <c r="H101" t="s">
+        <v>70</v>
+      </c>
+      <c r="I101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="s">
+        <v>249</v>
+      </c>
+      <c r="F102">
+        <f>屏蔽规则!$E$46</f>
+      </c>
+      <c r="G102">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="5:8">
-      <c r="E71" t="s">
-        <v>155</v>
-      </c>
-      <c r="F71" t="str">
-        <f>屏蔽规则!$E$20</f>
-        <v>hpfm_permission_range-20</v>
-      </c>
-      <c r="G71" t="str">
+      </c>
+      <c r="H102" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="s">
+        <v>250</v>
+      </c>
+      <c r="F103">
+        <f>屏蔽规则!$E$47</f>
+      </c>
+      <c r="G103">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="5:8">
-      <c r="E72" t="s">
-        <v>156</v>
-      </c>
-      <c r="F72" t="str">
-        <f>屏蔽规则!$E$21</f>
-        <v>hpfm_permission_range-21</v>
-      </c>
-      <c r="G72" t="str">
+      </c>
+      <c r="H103" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="s">
+        <v>251</v>
+      </c>
+      <c r="F104">
+        <f>屏蔽规则!$E$48</f>
+      </c>
+      <c r="G104">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="5:8">
-      <c r="E73" t="s">
-        <v>157</v>
-      </c>
-      <c r="F73" t="str">
-        <f>屏蔽规则!$E$22</f>
-        <v>hpfm_permission_range-22</v>
-      </c>
-      <c r="G73" t="str">
+      </c>
+      <c r="H104" t="s">
+        <v>70</v>
+      </c>
+      <c r="I104" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="s">
+        <v>252</v>
+      </c>
+      <c r="F105">
+        <f>屏蔽规则!$E$49</f>
+      </c>
+      <c r="G105">
+        <f>屏蔽规则!$E$11</f>
+      </c>
+      <c r="H105" t="s">
+        <v>70</v>
+      </c>
+      <c r="I105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="s">
+        <v>253</v>
+      </c>
+      <c r="F106">
+        <f>屏蔽规则!$E$50</f>
+      </c>
+      <c r="G106">
+        <f>屏蔽规则!$E$12</f>
+      </c>
+      <c r="H106" t="s">
+        <v>70</v>
+      </c>
+      <c r="I106" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="s">
+        <v>254</v>
+      </c>
+      <c r="F107">
+        <f>屏蔽规则!$E$51</f>
+      </c>
+      <c r="G107">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H73" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="5:8">
-      <c r="E74" t="s">
-        <v>158</v>
-      </c>
-      <c r="F74" t="str">
-        <f>屏蔽规则!$E$23</f>
-        <v>hpfm_permission_range-23</v>
-      </c>
-      <c r="G74" t="str">
-        <f>屏蔽规则!$E$9</f>
-        <v>hpfm_permission_rule-9</v>
-      </c>
-      <c r="H74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="5:8">
-      <c r="E75" t="s">
-        <v>159</v>
-      </c>
-      <c r="F75" t="str">
-        <f>屏蔽规则!$E$24</f>
-        <v>hpfm_permission_range-24</v>
-      </c>
-      <c r="G75" t="str">
+      </c>
+      <c r="H107" t="s">
+        <v>70</v>
+      </c>
+      <c r="I107" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="s">
+        <v>255</v>
+      </c>
+      <c r="F108">
+        <f>屏蔽规则!$E$52</f>
+      </c>
+      <c r="G108">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H108" t="s">
+        <v>70</v>
+      </c>
+      <c r="I108" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="s">
+        <v>256</v>
+      </c>
+      <c r="F109">
+        <f>屏蔽规则!$E$53</f>
+      </c>
+      <c r="G109">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H109" t="s">
+        <v>70</v>
+      </c>
+      <c r="I109" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="s">
+        <v>257</v>
+      </c>
+      <c r="F110">
+        <f>屏蔽规则!$E$54</f>
+      </c>
+      <c r="G110">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H110" t="s">
+        <v>70</v>
+      </c>
+      <c r="I110" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="s">
+        <v>258</v>
+      </c>
+      <c r="F111">
+        <f>屏蔽规则!$E$55</f>
+      </c>
+      <c r="G111">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H111" t="s">
+        <v>70</v>
+      </c>
+      <c r="I111" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="s">
+        <v>259</v>
+      </c>
+      <c r="F112">
+        <f>屏蔽规则!$E$56</f>
+      </c>
+      <c r="G112">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H112" t="s">
+        <v>70</v>
+      </c>
+      <c r="I112" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="s">
+        <v>260</v>
+      </c>
+      <c r="F113">
+        <f>屏蔽规则!$E$57</f>
+      </c>
+      <c r="G113">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I113" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="s">
+        <v>261</v>
+      </c>
+      <c r="F114">
+        <f>屏蔽规则!$E$58</f>
+      </c>
+      <c r="G114">
+        <f>屏蔽规则!$E$13</f>
+      </c>
+      <c r="H114" t="s">
+        <v>70</v>
+      </c>
+      <c r="I114" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="s">
+        <v>262</v>
+      </c>
+      <c r="F115">
+        <f>屏蔽规则!$E$59</f>
+      </c>
+      <c r="G115">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H115" t="s">
+        <v>70</v>
+      </c>
+      <c r="I115" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="s">
+        <v>263</v>
+      </c>
+      <c r="F116">
+        <f>屏蔽规则!$E$60</f>
+      </c>
+      <c r="G116">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H116" t="s">
+        <v>70</v>
+      </c>
+      <c r="I116" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="s">
+        <v>264</v>
+      </c>
+      <c r="F117">
+        <f>屏蔽规则!$E$61</f>
+      </c>
+      <c r="G117">
         <f>屏蔽规则!$E$10</f>
-        <v>hpfm_permission_rule-10</v>
-      </c>
-      <c r="H75" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="5:8">
-      <c r="E76" t="s">
-        <v>160</v>
-      </c>
-      <c r="F76" t="str">
-        <f>屏蔽规则!$E$25</f>
-        <v>hpfm_permission_range-25</v>
-      </c>
-      <c r="G76" t="str">
+      </c>
+      <c r="H117" t="s">
+        <v>70</v>
+      </c>
+      <c r="I117" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="s">
+        <v>265</v>
+      </c>
+      <c r="F118">
+        <f>屏蔽规则!$E$62</f>
+      </c>
+      <c r="G118">
+        <f>屏蔽规则!$E$10</f>
+      </c>
+      <c r="H118" t="s">
+        <v>70</v>
+      </c>
+      <c r="I118" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="s">
+        <v>266</v>
+      </c>
+      <c r="F119">
+        <f>屏蔽规则!$E$63</f>
+      </c>
+      <c r="G119">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H76" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="5:8">
-      <c r="E77" t="s">
-        <v>161</v>
-      </c>
-      <c r="F77" t="str">
-        <f>屏蔽规则!$E$26</f>
-        <v>hpfm_permission_range-26</v>
-      </c>
-      <c r="G77" t="str">
+      </c>
+      <c r="H119" t="s">
+        <v>70</v>
+      </c>
+      <c r="I119" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="s">
+        <v>267</v>
+      </c>
+      <c r="F120">
+        <f>屏蔽规则!$E$64</f>
+      </c>
+      <c r="G120">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H77" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="78" spans="5:8">
-      <c r="E78" t="s">
-        <v>162</v>
-      </c>
-      <c r="F78" t="str">
-        <f>屏蔽规则!$E$27</f>
-        <v>hpfm_permission_range-27</v>
-      </c>
-      <c r="G78" t="str">
+      </c>
+      <c r="H120" t="s">
+        <v>70</v>
+      </c>
+      <c r="I120" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="s">
+        <v>268</v>
+      </c>
+      <c r="F121">
+        <f>屏蔽规则!$E$65</f>
+      </c>
+      <c r="G121">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H78" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="5:8">
-      <c r="E79" t="s">
-        <v>163</v>
-      </c>
-      <c r="F79" t="str">
-        <f>屏蔽规则!$E$28</f>
-        <v>hpfm_permission_range-28</v>
-      </c>
-      <c r="G79" t="str">
+      </c>
+      <c r="H121" t="s">
+        <v>70</v>
+      </c>
+      <c r="I121" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="s">
+        <v>269</v>
+      </c>
+      <c r="F122">
+        <f>屏蔽规则!$E$66</f>
+      </c>
+      <c r="G122">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H79" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="5:8">
-      <c r="E80" t="s">
-        <v>164</v>
-      </c>
-      <c r="F80" t="str">
-        <f>屏蔽规则!$E$29</f>
-        <v>hpfm_permission_range-29</v>
-      </c>
-      <c r="G80" t="str">
+      </c>
+      <c r="H122" t="s">
+        <v>70</v>
+      </c>
+      <c r="I122" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="s">
+        <v>270</v>
+      </c>
+      <c r="F123">
+        <f>屏蔽规则!$E$67</f>
+      </c>
+      <c r="G123">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H80" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="5:8">
-      <c r="E81" t="s">
-        <v>165</v>
-      </c>
-      <c r="F81" t="str">
-        <f>屏蔽规则!$E$30</f>
-        <v>hpfm_permission_range-30</v>
-      </c>
-      <c r="G81" t="str">
+      </c>
+      <c r="H123" t="s">
+        <v>70</v>
+      </c>
+      <c r="I123" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="s">
+        <v>271</v>
+      </c>
+      <c r="F124">
+        <f>屏蔽规则!$E$68</f>
+      </c>
+      <c r="G124">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="5:8">
-      <c r="E82" t="s">
-        <v>166</v>
-      </c>
-      <c r="F82" t="str">
-        <f>屏蔽规则!$E$31</f>
-        <v>hpfm_permission_range-31</v>
-      </c>
-      <c r="G82" t="str">
+      </c>
+      <c r="H124" t="s">
+        <v>70</v>
+      </c>
+      <c r="I124" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="s">
+        <v>272</v>
+      </c>
+      <c r="F125">
+        <f>屏蔽规则!$E$69</f>
+      </c>
+      <c r="G125">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H82" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="5:8">
-      <c r="E83" t="s">
-        <v>167</v>
-      </c>
-      <c r="F83" t="str">
-        <f>屏蔽规则!$E$32</f>
-        <v>hpfm_permission_range-32</v>
-      </c>
-      <c r="G83" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H83" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="5:8">
-      <c r="E84" t="s">
-        <v>168</v>
-      </c>
-      <c r="F84" t="str">
-        <f>屏蔽规则!$E$33</f>
-        <v>hpfm_permission_range-33</v>
-      </c>
-      <c r="G84" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H84" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="5:8">
-      <c r="E85" t="s">
-        <v>169</v>
-      </c>
-      <c r="F85" t="str">
-        <f>屏蔽规则!$E$34</f>
-        <v>hpfm_permission_range-34</v>
-      </c>
-      <c r="G85" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H85" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="5:8">
-      <c r="E86" t="s">
-        <v>170</v>
-      </c>
-      <c r="F86" t="str">
-        <f>屏蔽规则!$E$35</f>
-        <v>hpfm_permission_range-35</v>
-      </c>
-      <c r="G86" t="str">
-        <f>屏蔽规则!$E$10</f>
-        <v>hpfm_permission_rule-10</v>
-      </c>
-      <c r="H86" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87" spans="5:8">
-      <c r="E87" t="s">
-        <v>171</v>
-      </c>
-      <c r="F87" t="str">
-        <f>屏蔽规则!$E$36</f>
-        <v>hpfm_permission_range-36</v>
-      </c>
-      <c r="G87" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H87" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="5:8">
-      <c r="E88" t="s">
-        <v>172</v>
-      </c>
-      <c r="F88" t="str">
-        <f>屏蔽规则!$E$37</f>
-        <v>hpfm_permission_range-37</v>
-      </c>
-      <c r="G88" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H88" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="89" spans="5:8">
-      <c r="E89" t="s">
-        <v>173</v>
-      </c>
-      <c r="F89" t="str">
-        <f>屏蔽规则!$E$38</f>
-        <v>hpfm_permission_range-38</v>
-      </c>
-      <c r="G89" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H89" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="5:8">
-      <c r="E90" t="s">
-        <v>174</v>
-      </c>
-      <c r="F90" t="str">
-        <f>屏蔽规则!$E$39</f>
-        <v>hpfm_permission_range-39</v>
-      </c>
-      <c r="G90" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H90" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="91" spans="5:8">
-      <c r="E91" t="s">
-        <v>175</v>
-      </c>
-      <c r="F91" t="str">
-        <f>屏蔽规则!$E$40</f>
-        <v>hpfm_permission_range-40</v>
-      </c>
-      <c r="G91" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H91" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="5:8">
-      <c r="E92" t="s">
-        <v>176</v>
-      </c>
-      <c r="F92" t="str">
-        <f>屏蔽规则!$E$41</f>
-        <v>hpfm_permission_range-41</v>
-      </c>
-      <c r="G92" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H92" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="5:8">
-      <c r="E93" t="s">
-        <v>177</v>
-      </c>
-      <c r="F93" t="str">
-        <f>屏蔽规则!$E$42</f>
-        <v>hpfm_permission_range-42</v>
-      </c>
-      <c r="G93" t="str">
-        <f>屏蔽规则!$E$10</f>
-        <v>hpfm_permission_rule-10</v>
-      </c>
-      <c r="H93" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="5:8">
-      <c r="E94" t="s">
-        <v>178</v>
-      </c>
-      <c r="F94" t="str">
-        <f>屏蔽规则!$E$43</f>
-        <v>hpfm_permission_range-43</v>
-      </c>
-      <c r="G94" t="str">
-        <f>屏蔽规则!$E$10</f>
-        <v>hpfm_permission_rule-10</v>
-      </c>
-      <c r="H94" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="5:8">
-      <c r="E95" t="s">
-        <v>179</v>
-      </c>
-      <c r="F95" t="str">
-        <f>屏蔽规则!$E$44</f>
-        <v>hpfm_permission_range-44</v>
-      </c>
-      <c r="G95" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H95" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="5:8">
-      <c r="E96" t="s">
-        <v>180</v>
-      </c>
-      <c r="F96" t="str">
-        <f>屏蔽规则!$E$45</f>
-        <v>hpfm_permission_range-45</v>
-      </c>
-      <c r="G96" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H96" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="97" spans="5:8">
-      <c r="E97" t="s">
-        <v>181</v>
-      </c>
-      <c r="F97" t="str">
-        <f>屏蔽规则!$E$46</f>
-        <v>hpfm_permission_range-46</v>
-      </c>
-      <c r="G97" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H97" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="5:8">
-      <c r="E98" t="s">
-        <v>182</v>
-      </c>
-      <c r="F98" t="str">
-        <f>屏蔽规则!$E$47</f>
-        <v>hpfm_permission_range-47</v>
-      </c>
-      <c r="G98" t="str">
-        <f>屏蔽规则!$E$11</f>
-        <v>hpfm_permission_rule-11</v>
-      </c>
-      <c r="H98" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="5:8">
-      <c r="E99" t="s">
-        <v>183</v>
-      </c>
-      <c r="F99" t="str">
-        <f>屏蔽规则!$E$49</f>
-        <v>hpfm_permission_range-49</v>
-      </c>
-      <c r="G99" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H99" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="100" spans="5:8">
-      <c r="E100" t="s">
-        <v>184</v>
-      </c>
-      <c r="F100" t="str">
-        <f>屏蔽规则!$E$50</f>
-        <v>hpfm_permission_range-50</v>
-      </c>
-      <c r="G100" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H100" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="5:8">
-      <c r="E101" t="s">
-        <v>185</v>
-      </c>
-      <c r="F101" t="str">
-        <f>屏蔽规则!$E$51</f>
-        <v>hpfm_permission_range-51</v>
-      </c>
-      <c r="G101" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H101" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="5:8">
-      <c r="E102" t="s">
-        <v>186</v>
-      </c>
-      <c r="F102" t="str">
-        <f>屏蔽规则!$E$52</f>
-        <v>hpfm_permission_range-52</v>
-      </c>
-      <c r="G102" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H102" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="103" spans="5:8">
-      <c r="E103" t="s">
-        <v>187</v>
-      </c>
-      <c r="F103" t="str">
-        <f>屏蔽规则!$E$53</f>
-        <v>hpfm_permission_range-53</v>
-      </c>
-      <c r="G103" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H103" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="104" spans="5:8">
-      <c r="E104" t="s">
-        <v>188</v>
-      </c>
-      <c r="F104" t="str">
-        <f>屏蔽规则!$E$54</f>
-        <v>hpfm_permission_range-54</v>
-      </c>
-      <c r="G104" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H104" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="105" spans="5:8">
-      <c r="E105" t="s">
-        <v>189</v>
-      </c>
-      <c r="F105" t="str">
-        <f>屏蔽规则!$E$55</f>
-        <v>hpfm_permission_range-55</v>
-      </c>
-      <c r="G105" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H105" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="106" spans="5:8">
-      <c r="E106" t="s">
-        <v>190</v>
-      </c>
-      <c r="F106" t="str">
-        <f>屏蔽规则!$E$57</f>
-        <v>hpfm_permission_range-57</v>
-      </c>
-      <c r="G106" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H106" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="107" spans="5:8">
-      <c r="E107" t="s">
-        <v>191</v>
-      </c>
-      <c r="F107" t="str">
-        <f>屏蔽规则!$E$58</f>
-        <v>hpfm_permission_range-58</v>
-      </c>
-      <c r="G107" t="str">
-        <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
-      </c>
-      <c r="H107" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="108" spans="5:8">
-      <c r="E108" t="s">
-        <v>192</v>
-      </c>
-      <c r="F108" t="str">
-        <f>屏蔽规则!$E$59</f>
-        <v>hpfm_permission_range-59</v>
-      </c>
-      <c r="G108" t="str">
-        <f>屏蔽规则!$E$10</f>
-        <v>hpfm_permission_rule-10</v>
-      </c>
-      <c r="H108" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="109" spans="5:8">
-      <c r="E109" t="s">
-        <v>193</v>
-      </c>
-      <c r="F109" t="str">
-        <f>屏蔽规则!$E$60</f>
-        <v>hpfm_permission_range-60</v>
-      </c>
-      <c r="G109" t="str">
-        <f>屏蔽规则!$E$10</f>
-        <v>hpfm_permission_rule-10</v>
-      </c>
-      <c r="H109" t="s">
-        <v>68</v>
+      </c>
+      <c r="H125" t="s">
+        <v>70</v>
+      </c>
+      <c r="I125" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>